--- a/Checklist/Checklist grupo#4.xlsx
+++ b/Checklist/Checklist grupo#4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Documentos\GitHub\proyecto-riego\Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MET.SOFTWARE\proyecto-riego\Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF74BF-2B13-4F2D-86D4-892F28360F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckList" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>Requisito</t>
   </si>
@@ -52,9 +53,6 @@
   </si>
   <si>
     <t>Pasa</t>
-  </si>
-  <si>
-    <t>REQ1: El sistema debe medir la humedad presente en la tierrra de las plantas</t>
   </si>
   <si>
     <t>SI</t>
@@ -111,11 +109,20 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>REQ1: El sistema debe medir la humedad presente en la tierrra de las plantas.</t>
+  </si>
+  <si>
+    <t>REQ3: La implementacion debe abrir el paso de agua adecuadamente en las horas programadas o si la tierra no se encuentra humeda.</t>
+  </si>
+  <si>
+    <t>REQ4: El sistema debe notificar o alertar al usuario cuando el deposito de agua esté proximo a quedarse vacío o si es que ya lo está.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +336,13 @@
     <xdr:ext cx="619125" cy="438150"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -386,7 +399,13 @@
     <xdr:ext cx="381000" cy="257175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 3"/>
+        <xdr:cNvPr id="2" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -443,7 +462,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image5.png" title="Imagen"/>
+        <xdr:cNvPr id="4" name="image5.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -471,7 +496,13 @@
     <xdr:ext cx="323850" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="5" name="image4.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -499,7 +530,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="6" name="image3.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -527,7 +564,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="7" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -555,7 +598,13 @@
     <xdr:ext cx="381000" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image6.png" title="Imagen"/>
+        <xdr:cNvPr id="8" name="image6.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -583,7 +632,13 @@
     <xdr:ext cx="381000" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="9" name="image2.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -611,7 +666,13 @@
     <xdr:ext cx="381000" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image7.png" title="Imagen"/>
+        <xdr:cNvPr id="10" name="image7.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -639,7 +700,13 @@
     <xdr:ext cx="381000" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image9.png" title="Imagen"/>
+        <xdr:cNvPr id="11" name="image9.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -667,7 +734,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="12" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -695,7 +768,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="13" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -723,7 +802,13 @@
     <xdr:ext cx="381000" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="image8.png" title="Imagen"/>
+        <xdr:cNvPr id="14" name="image8.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -751,7 +836,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="15" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -779,7 +870,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="16" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -807,7 +904,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="17" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -835,7 +938,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image10.png" title="Imagen"/>
+        <xdr:cNvPr id="18" name="image10.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -863,7 +972,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="19" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -891,7 +1006,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="20" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -919,7 +1040,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="21" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -947,7 +1074,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="22" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -975,7 +1108,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="23" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1003,7 +1142,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="24" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1031,7 +1176,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="25" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1059,7 +1210,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="26" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1087,7 +1244,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="27" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1115,7 +1278,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="28" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1143,7 +1312,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="29" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1171,7 +1346,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="30" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1199,7 +1380,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="31" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1227,7 +1414,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="32" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1255,7 +1448,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="33" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1283,7 +1482,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="34" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1311,7 +1516,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="35" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1339,7 +1550,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="36" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1367,7 +1584,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="37" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1395,7 +1618,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="38" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1423,7 +1652,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="39" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1451,7 +1686,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="40" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1479,7 +1720,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="image11.png" title="Imagen"/>
+        <xdr:cNvPr id="41" name="image11.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1507,7 +1754,13 @@
     <xdr:ext cx="323850" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="image12.png" title="Imagen"/>
+        <xdr:cNvPr id="42" name="image12.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1535,7 +1788,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="43" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1563,7 +1822,13 @@
     <xdr:ext cx="381000" cy="371475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="44" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1781,11 +2046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1849,195 +2114,195 @@
     </row>
     <row r="2" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3028,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3043,36 +3308,36 @@
     <row r="2" spans="1:8" ht="257.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -3080,21 +3345,21 @@
     </row>
     <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3106,7 +3371,7 @@
     </row>
     <row r="6" spans="1:8" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3118,7 +3383,7 @@
     </row>
     <row r="7" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3130,7 +3395,7 @@
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3142,7 +3407,7 @@
     </row>
     <row r="9" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>

--- a/Checklist/Checklist grupo#4.xlsx
+++ b/Checklist/Checklist grupo#4.xlsx
@@ -54,9 +54,6 @@
     <t>Pasa</t>
   </si>
   <si>
-    <t>REQ1: El sistema debe medir la humedad presente en la tierrra de las plantas</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>REQ1: El sistema debe medir la humedad presente en la tierrra de las plantas.</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +300,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1785,7 +1788,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1848,196 +1851,196 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3043,36 +3046,36 @@
     <row r="2" spans="1:8" ht="257.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -3080,21 +3083,21 @@
     </row>
     <row r="4" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3106,7 +3109,7 @@
     </row>
     <row r="6" spans="1:8" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3118,7 +3121,7 @@
     </row>
     <row r="7" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3142,7 +3145,7 @@
     </row>
     <row r="9" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
